--- a/12 Chunked Design/Chunked Design.xlsx
+++ b/12 Chunked Design/Chunked Design.xlsx
@@ -1,96 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safafisalamboharijaon/Desktop/Homework/Term 5/Week 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A7F8C03-2122-4EAD-938F-ECA891C572BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D765B3-A9B3-F540-9F4E-F66AD36D1186}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{53CE7704-A5F9-41D7-A67C-523337E7F4C9}"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{DB2A86B2-DBD0-644F-A674-DDF34BF106B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Functions and Artifacts" sheetId="1" r:id="rId1"/>
+    <sheet name="Chunked Design (Subsystems)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Player matching system</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+  <si>
+    <t>Functions/Artifacts</t>
+  </si>
+  <si>
+    <t>We collated functions from the Systems Analysis phase, and artifacts from our concept sketches:</t>
+  </si>
+  <si>
+    <t>Assign player role</t>
+  </si>
+  <si>
+    <t>Assign match type</t>
+  </si>
+  <si>
+    <t>Relay confederate's message</t>
+  </si>
+  <si>
+    <t>Relay judge's message</t>
+  </si>
+  <si>
+    <t>Process judge's message</t>
+  </si>
+  <si>
+    <t>Process match result</t>
+  </si>
+  <si>
+    <t>Update leaderboard</t>
+  </si>
+  <si>
+    <t>Seek opponent</t>
+  </si>
+  <si>
+    <t>Rematch confederate to face new opponent</t>
+  </si>
+  <si>
+    <t>Detect unresponsiveness</t>
+  </si>
+  <si>
+    <t>Detect continued unresponsiveness</t>
+  </si>
+  <si>
+    <t>Detect time limit exceeded</t>
+  </si>
+  <si>
+    <t>Force player to exit match</t>
+  </si>
+  <si>
+    <t>Relay confederate's final message</t>
+  </si>
+  <si>
+    <t>Relay judge's message (approaching time limit)</t>
+  </si>
+  <si>
+    <t>Generate chatbot response</t>
+  </si>
+  <si>
+    <t>Detect abusive message</t>
+  </si>
+  <si>
+    <t>Prompt judge to input</t>
+  </si>
+  <si>
+    <t>Block player from game for 24 hours</t>
+  </si>
+  <si>
+    <t>Prompt judge to respond</t>
+  </si>
+  <si>
+    <t>Detect consecutive abusive message</t>
+  </si>
+  <si>
+    <t>Relay match result and ranking to players</t>
+  </si>
+  <si>
+    <t>Prompt judge to input non-abusive message</t>
+  </si>
+  <si>
+    <t>Chat logs</t>
+  </si>
+  <si>
+    <t>External cloud API</t>
+  </si>
+  <si>
+    <t>Co-ordinator chatbot</t>
+  </si>
+  <si>
+    <t>Rankings page</t>
+  </si>
+  <si>
+    <t>Chunked Design: Subsystems</t>
+  </si>
+  <si>
+    <t>We affinitize the functions and artifacts into subsystems:</t>
+  </si>
+  <si>
+    <t>Chatbot</t>
   </si>
   <si>
     <t>Message Relay</t>
   </si>
   <si>
-    <t>Assign player roles</t>
-  </si>
-  <si>
-    <t>Player joining game</t>
-  </si>
-  <si>
-    <t>Check for abusive messages</t>
-  </si>
-  <si>
-    <t>Send messages</t>
-  </si>
-  <si>
-    <t>Timing system</t>
-  </si>
-  <si>
-    <t>Store and share messages</t>
-  </si>
-  <si>
-    <t>Chatbot</t>
-  </si>
-  <si>
-    <t>AI system</t>
-  </si>
-  <si>
-    <t>Ranking/Leaderboard System</t>
-  </si>
-  <si>
-    <t>Score display</t>
-  </si>
-  <si>
-    <t>Score keeping</t>
-  </si>
-  <si>
-    <t>Game prompts</t>
+    <t>Player Management</t>
+  </si>
+  <si>
+    <t>Referee</t>
+  </si>
+  <si>
+    <t>Scoring</t>
+  </si>
+  <si>
+    <t>Match Setup</t>
+  </si>
+  <si>
+    <t>Block player from the game for 24 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <name val="Gotham Book"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,18 +183,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,17 +235,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,147 +664,597 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0277C17-0968-4C2F-8078-BF25663FFA4A}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB9A6A5-C89E-C145-979C-1359A982F4F1}">
+  <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="5.1640625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="20.83203125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="2:8" ht="39">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="32" customHeight="1">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="C5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" ht="31" customHeight="1">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" ht="18" customHeight="1">
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" ht="18" customHeight="1">
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="2:8" ht="18" customHeight="1">
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" ht="18" customHeight="1">
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1">
+      <c r="B11" s="10">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1">
+      <c r="B12" s="10">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" ht="31" customHeight="1">
+      <c r="B13" s="10">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="2:8" ht="19" customHeight="1">
+      <c r="B14" s="10">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="2:8" ht="17" customHeight="1">
+      <c r="B15" s="10">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="2:8" ht="31" customHeight="1">
+      <c r="B16" s="10">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1">
+      <c r="B17" s="10">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" ht="19" customHeight="1">
+      <c r="B18" s="10">
+        <v>13</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1">
+      <c r="B19" s="10">
+        <v>14</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:5" ht="31" customHeight="1">
+      <c r="B20" s="10">
+        <v>15</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:5" ht="31" customHeight="1">
+      <c r="B21" s="10">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:5" ht="18" customHeight="1">
+      <c r="B22" s="10">
+        <v>17</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:5" ht="18" customHeight="1">
+      <c r="B23" s="10">
+        <v>18</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:5" ht="33" customHeight="1">
+      <c r="B24" s="10">
+        <v>19</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:5" ht="31" customHeight="1">
+      <c r="B25" s="10">
+        <v>20</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:5" ht="32" customHeight="1">
+      <c r="B26" s="10">
+        <v>21</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="2:5" ht="17" customHeight="1">
+      <c r="B27" s="10">
+        <v>22</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:5" ht="18" customHeight="1">
+      <c r="B28" s="10">
+        <v>23</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="2:5" ht="13" customHeight="1">
+      <c r="B29" s="10">
+        <v>20</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="2:5" ht="13" customHeight="1">
+      <c r="B30" s="10">
+        <v>21</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="2:5" ht="13" customHeight="1">
+      <c r="B31" s="10">
+        <v>22</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="2:5" ht="13" customHeight="1">
+      <c r="B32" s="10">
+        <v>23</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5ADFE44-1BCC-624C-9D78-93DE030770AB}">
+  <dimension ref="A2:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="19" customWidth="1"/>
+    <col min="2" max="7" width="20.83203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="39">
+      <c r="A2" s="15"/>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="14">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32" customHeight="1">
+      <c r="B6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="32" customHeight="1">
+      <c r="B7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32" customHeight="1">
+      <c r="B8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="32" customHeight="1">
+      <c r="B9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="32" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="32" customHeight="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="32" customHeight="1">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="32" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="32" customHeight="1">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="32" customHeight="1">
+      <c r="E15" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="16"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>